--- a/teaching/traditional_assets/database/data/bermuda/bermuda_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/bermuda/bermuda_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.00534</v>
+        <v>0.2092</v>
       </c>
       <c r="E2">
-        <v>-0.0516</v>
+        <v>-0.0707</v>
       </c>
       <c r="G2">
-        <v>0.05134639433097123</v>
+        <v>0.07770246164823404</v>
       </c>
       <c r="H2">
-        <v>0.05134639433097123</v>
+        <v>0.07770246164823404</v>
       </c>
       <c r="I2">
-        <v>0.04682997289194438</v>
+        <v>0.02304013603203665</v>
       </c>
       <c r="J2">
-        <v>0.04508099776121712</v>
+        <v>0.02225079120004012</v>
       </c>
       <c r="K2">
-        <v>65.95</v>
+        <v>6.98</v>
       </c>
       <c r="L2">
-        <v>0.05498124218424344</v>
+        <v>0.004980378166250446</v>
       </c>
       <c r="M2">
-        <v>55.30410000000001</v>
+        <v>118.4167</v>
       </c>
       <c r="N2">
-        <v>0.04463968036161112</v>
+        <v>0.08434237891737892</v>
       </c>
       <c r="O2">
-        <v>0.8385761940864291</v>
+        <v>16.96514326647564</v>
       </c>
       <c r="P2">
-        <v>34.4821</v>
+        <v>31.1167</v>
       </c>
       <c r="Q2">
-        <v>0.02783283557994996</v>
+        <v>0.02216289173789174</v>
       </c>
       <c r="R2">
-        <v>0.5228521607278241</v>
+        <v>4.457979942693409</v>
       </c>
       <c r="S2">
-        <v>20.822</v>
+        <v>87.30000000000001</v>
       </c>
       <c r="T2">
-        <v>0.3765001148196969</v>
+        <v>0.7372270971915279</v>
       </c>
       <c r="U2">
-        <v>629.4</v>
+        <v>644.3000000000001</v>
       </c>
       <c r="V2">
-        <v>0.5080313181047704</v>
+        <v>0.458903133903134</v>
       </c>
       <c r="W2">
-        <v>0.08498593850995415</v>
+        <v>0.02417926003126628</v>
       </c>
       <c r="X2">
-        <v>0.05750597533194899</v>
+        <v>0.05583348873153725</v>
       </c>
       <c r="Y2">
-        <v>0.02747996317800516</v>
+        <v>-0.03165422870027097</v>
       </c>
       <c r="Z2">
-        <v>0.5944836955639611</v>
+        <v>0.7224743534333014</v>
       </c>
       <c r="AA2">
-        <v>0.05859257200426743</v>
+        <v>0.01771562711477256</v>
       </c>
       <c r="AB2">
-        <v>0.0548967668601329</v>
+        <v>0.04962856410047922</v>
       </c>
       <c r="AC2">
-        <v>-0.001026267911180857</v>
+        <v>-0.03901452134495093</v>
       </c>
       <c r="AD2">
-        <v>832.52</v>
+        <v>708.5999999999999</v>
       </c>
       <c r="AE2">
-        <v>6.017237580563568</v>
+        <v>0.9612467555031695</v>
       </c>
       <c r="AF2">
-        <v>838.5372375805636</v>
+        <v>709.5612467555031</v>
       </c>
       <c r="AG2">
-        <v>209.1372375805636</v>
+        <v>65.26124675550307</v>
       </c>
       <c r="AH2">
-        <v>0.4036402267233573</v>
+        <v>0.3357183274649553</v>
       </c>
       <c r="AI2">
-        <v>0.3118122960155697</v>
+        <v>0.2904512904974942</v>
       </c>
       <c r="AJ2">
-        <v>0.1444280797156834</v>
+        <v>0.04441772822880631</v>
       </c>
       <c r="AK2">
-        <v>0.1015309529146153</v>
+        <v>0.03628323391812879</v>
       </c>
       <c r="AL2">
-        <v>37.704</v>
+        <v>51.871</v>
       </c>
       <c r="AM2">
-        <v>37.704</v>
+        <v>51.871</v>
       </c>
       <c r="AN2">
-        <v>11.55539516420065</v>
+        <v>17.64749831893009</v>
       </c>
       <c r="AO2">
-        <v>1.439369828134946</v>
+        <v>0.6207707582271405</v>
       </c>
       <c r="AP2">
-        <v>2.902829269918712</v>
+        <v>1.62531434153122</v>
       </c>
       <c r="AQ2">
-        <v>1.439369828134946</v>
+        <v>0.6207707582271405</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.00534</v>
+        <v>-0.0256</v>
       </c>
       <c r="E3">
-        <v>-0.0516</v>
+        <v>-0.0707</v>
       </c>
       <c r="G3">
-        <v>0.08576449912126537</v>
+        <v>0.1050803300043422</v>
       </c>
       <c r="H3">
-        <v>0.08576449912126537</v>
+        <v>0.1050803300043422</v>
       </c>
       <c r="I3">
-        <v>0.08010091398753739</v>
+        <v>0.07685627442466347</v>
       </c>
       <c r="J3">
-        <v>0.08010091398753739</v>
+        <v>0.07555059112619902</v>
       </c>
       <c r="K3">
-        <v>24.9</v>
+        <v>10.9</v>
       </c>
       <c r="L3">
-        <v>0.08752196836555359</v>
+        <v>0.04732957012592271</v>
       </c>
       <c r="M3">
-        <v>8.938000000000001</v>
+        <v>4.425</v>
       </c>
       <c r="N3">
-        <v>0.04951800554016621</v>
+        <v>0.025</v>
       </c>
       <c r="O3">
-        <v>0.3589558232931727</v>
+        <v>0.4059633027522935</v>
       </c>
       <c r="P3">
-        <v>7.94</v>
+        <v>4.425</v>
       </c>
       <c r="Q3">
-        <v>0.04398891966759003</v>
+        <v>0.025</v>
       </c>
       <c r="R3">
-        <v>0.3188755020080322</v>
+        <v>0.4059633027522935</v>
       </c>
       <c r="S3">
-        <v>0.9980000000000002</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1116580890579548</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>143.4</v>
+        <v>119.2</v>
       </c>
       <c r="V3">
-        <v>0.7944598337950138</v>
+        <v>0.6734463276836158</v>
       </c>
       <c r="W3">
-        <v>0.0953657602451168</v>
+        <v>0.03828591499824377</v>
       </c>
       <c r="X3">
-        <v>0.05173288413493769</v>
+        <v>0.04592464886435726</v>
       </c>
       <c r="Y3">
-        <v>0.0436328761101791</v>
+        <v>-0.007638733866113495</v>
       </c>
       <c r="Z3">
-        <v>5.752535833995101</v>
+        <v>1.629865534324133</v>
       </c>
       <c r="AA3">
-        <v>0.4607833780490683</v>
+        <v>0.1231373045744065</v>
       </c>
       <c r="AB3">
-        <v>0.05162820833298112</v>
+        <v>0.04592464886435726</v>
       </c>
       <c r="AC3">
-        <v>0.4091551697160872</v>
+        <v>0.07721265571004923</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.156449852728045</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.156449852728045</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-142.2435501472719</v>
+        <v>-119.2</v>
       </c>
       <c r="AH3">
-        <v>0.006366137033205254</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.003569769496034952</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-3.718158655464697</v>
+        <v>-2.062283737024222</v>
       </c>
       <c r="AK3">
-        <v>-0.7878065295551266</v>
+        <v>-0.5766811804547654</v>
       </c>
       <c r="AL3">
-        <v>0.064</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.064</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>354.6875</v>
+        <v>249.2957746478873</v>
       </c>
       <c r="AP3">
-        <v>-4.818548446723304</v>
+        <v>-6.273684210526316</v>
       </c>
       <c r="AQ3">
-        <v>354.6875</v>
+        <v>249.2957746478873</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Argus Group Holdings Limited (BER:AGH.BH)</t>
+          <t>Watford Holdings Ltd. (NasdaqGS:WTRE)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -858,116 +858,116 @@
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.00445</v>
-      </c>
-      <c r="E4">
-        <v>-0.184</v>
-      </c>
       <c r="G4">
-        <v>0.1072175732217573</v>
+        <v>0.1624902723735409</v>
       </c>
       <c r="H4">
-        <v>0.1072175732217573</v>
+        <v>0.1624902723735409</v>
       </c>
       <c r="I4">
-        <v>0.04038502936141635</v>
+        <v>0.04481050684653598</v>
       </c>
       <c r="J4">
-        <v>0.03807731339790685</v>
+        <v>0.04481050684653598</v>
       </c>
       <c r="K4">
-        <v>8.050000000000001</v>
+        <v>-13.2</v>
       </c>
       <c r="L4">
-        <v>0.04210251046025106</v>
+        <v>-0.02054474708171206</v>
       </c>
       <c r="M4">
-        <v>3.354</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="N4">
-        <v>0.05089529590288315</v>
+        <v>0.1132102892021509</v>
       </c>
       <c r="O4">
-        <v>0.4166459627329192</v>
+        <v>-5.901515151515152</v>
       </c>
       <c r="P4">
-        <v>3.23</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.04901365705614567</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.4012422360248447</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1240000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="T4">
-        <v>0.0369707811568277</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>58.1</v>
+        <v>195.3</v>
       </c>
       <c r="V4">
-        <v>0.8816388467374809</v>
+        <v>0.2838250254323499</v>
       </c>
       <c r="W4">
-        <v>0.07460611677479148</v>
+        <v>-0.01373855120732723</v>
       </c>
       <c r="X4">
-        <v>0.0536237191027417</v>
+        <v>0.07593127247393811</v>
       </c>
       <c r="Y4">
-        <v>0.02098239767204978</v>
+        <v>-0.08966982368126533</v>
       </c>
       <c r="Z4">
-        <v>2.702209505522816</v>
+        <v>0.3953453857472278</v>
       </c>
       <c r="AA4">
-        <v>0.1028928782085952</v>
+        <v>0.01771562711477256</v>
       </c>
       <c r="AB4">
-        <v>0.05310365174658924</v>
+        <v>0.05673014845972348</v>
       </c>
       <c r="AC4">
-        <v>0.04978922646200592</v>
+        <v>-0.03901452134495093</v>
       </c>
       <c r="AD4">
-        <v>2.82</v>
+        <v>562.8</v>
       </c>
       <c r="AE4">
-        <v>1.456911930485975</v>
+        <v>0.9612467555031695</v>
       </c>
       <c r="AF4">
-        <v>4.276911930485975</v>
+        <v>563.7612467555032</v>
       </c>
       <c r="AG4">
-        <v>-53.82308806951403</v>
+        <v>368.4612467555032</v>
       </c>
       <c r="AH4">
-        <v>0.06094471547454933</v>
+        <v>0.4503384446292469</v>
       </c>
       <c r="AI4">
-        <v>0.03168624818360501</v>
+        <v>0.3801334894218598</v>
       </c>
       <c r="AJ4">
-        <v>-4.456692934362417</v>
+        <v>0.3487362875431755</v>
       </c>
       <c r="AK4">
-        <v>-0.7001203185448216</v>
+        <v>0.2861254348846389</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>39.4</v>
       </c>
       <c r="AN4">
-        <v>0.2068510232524023</v>
+        <v>19.41827968119242</v>
+      </c>
+      <c r="AO4">
+        <v>0.7284263959390863</v>
       </c>
       <c r="AP4">
-        <v>-3.94800029850466</v>
+        <v>12.71301268866243</v>
+      </c>
+      <c r="AQ4">
+        <v>0.7284263959390863</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Watford Holdings Ltd. (NasdaqGS:WTRE)</t>
+          <t>Randall &amp; Quilter Investment Holdings Ltd (AIM:RQIH)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -986,247 +986,119 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.444</v>
+      </c>
       <c r="G5">
-        <v>-0.004430080403594514</v>
+        <v>-0.03726120673349725</v>
       </c>
       <c r="H5">
-        <v>-0.004430080403594514</v>
+        <v>-0.03726120673349725</v>
       </c>
       <c r="I5">
-        <v>0.03980714076240773</v>
+        <v>-0.02685833175714015</v>
       </c>
       <c r="J5">
-        <v>0.03980714076240773</v>
+        <v>-0.02455415462124128</v>
       </c>
       <c r="K5">
-        <v>-12.2</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="L5">
-        <v>-0.01923380104051711</v>
+        <v>0.01755248723283525</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>36.0917</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.06697290777509743</v>
       </c>
       <c r="O5">
+        <v>3.889191810344828</v>
+      </c>
+      <c r="P5">
+        <v>26.6917</v>
+      </c>
+      <c r="Q5">
+        <v>0.04952996845425868</v>
+      </c>
+      <c r="R5">
+        <v>2.876260775862069</v>
+      </c>
+      <c r="S5">
+        <v>9.400000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.2604476929598772</v>
+      </c>
+      <c r="U5">
+        <v>329.8</v>
+      </c>
+      <c r="V5">
+        <v>0.6119873817034701</v>
+      </c>
+      <c r="W5">
+        <v>0.02417926003126628</v>
+      </c>
+      <c r="X5">
+        <v>0.05583348873153725</v>
+      </c>
+      <c r="Y5">
+        <v>-0.03165422870027097</v>
+      </c>
+      <c r="Z5">
+        <v>3.049019607843138</v>
+      </c>
+      <c r="AA5">
+        <v>-0.07486609889417685</v>
+      </c>
+      <c r="AB5">
+        <v>0.04962856410047922</v>
+      </c>
+      <c r="AC5">
+        <v>-0.1244946629946561</v>
+      </c>
+      <c r="AD5">
+        <v>145.8</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>-0</v>
-      </c>
-      <c r="Q5">
-        <v>-0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="V5">
-        <v>0.1500559910414334</v>
-      </c>
-      <c r="W5">
-        <v>-0.01238075908260605</v>
-      </c>
-      <c r="X5">
-        <v>0.09338196227770836</v>
-      </c>
-      <c r="Y5">
-        <v>-0.1057627213603144</v>
-      </c>
-      <c r="Z5">
-        <v>0.359037738611881</v>
-      </c>
-      <c r="AA5">
-        <v>0.0142922657999397</v>
-      </c>
-      <c r="AB5">
-        <v>0.06613402808430734</v>
-      </c>
-      <c r="AC5">
-        <v>-0.05184176228436763</v>
-      </c>
-      <c r="AD5">
-        <v>692.6</v>
-      </c>
-      <c r="AE5">
-        <v>1.166653072023899</v>
-      </c>
       <c r="AF5">
-        <v>693.7666530720239</v>
+        <v>145.8</v>
       </c>
       <c r="AG5">
-        <v>613.366653072024</v>
+        <v>-184</v>
       </c>
       <c r="AH5">
-        <v>0.564236718146735</v>
+        <v>0.2129399737111144</v>
       </c>
       <c r="AI5">
-        <v>0.4064562699279294</v>
+        <v>0.2299684542586751</v>
       </c>
       <c r="AJ5">
-        <v>0.5337490880302991</v>
+        <v>-0.5184559030712877</v>
       </c>
       <c r="AK5">
-        <v>0.3771160336509294</v>
+        <v>-0.6048652202498357</v>
       </c>
       <c r="AL5">
-        <v>29.3</v>
+        <v>12.4</v>
       </c>
       <c r="AM5">
-        <v>29.3</v>
+        <v>12.4</v>
       </c>
       <c r="AN5">
-        <v>27.07266544189501</v>
+        <v>-18.62068965517242</v>
       </c>
       <c r="AO5">
-        <v>0.8600682593856654</v>
+        <v>-1.145161290322581</v>
       </c>
       <c r="AP5">
-        <v>23.97555615338404</v>
+        <v>23.49936143039591</v>
       </c>
       <c r="AQ5">
-        <v>0.8600682593856654</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Randall &amp; Quilter Investment Holdings Ltd (AIM:RQIH)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.0195</v>
-      </c>
-      <c r="E6">
-        <v>0.494</v>
-      </c>
-      <c r="G6">
-        <v>0.217877094972067</v>
-      </c>
-      <c r="H6">
-        <v>0.217877094972067</v>
-      </c>
-      <c r="I6">
-        <v>0.004609558155696878</v>
-      </c>
-      <c r="J6">
-        <v>0.004184342453064004</v>
-      </c>
-      <c r="K6">
-        <v>45.2</v>
-      </c>
-      <c r="L6">
-        <v>0.5050279329608939</v>
-      </c>
-      <c r="M6">
-        <v>43.0121</v>
-      </c>
-      <c r="N6">
-        <v>0.09418020582439239</v>
-      </c>
-      <c r="O6">
-        <v>0.9515951327433628</v>
-      </c>
-      <c r="P6">
-        <v>23.3121</v>
-      </c>
-      <c r="Q6">
-        <v>0.05104466827238888</v>
-      </c>
-      <c r="R6">
-        <v>0.5157544247787611</v>
-      </c>
-      <c r="S6">
-        <v>19.7</v>
-      </c>
-      <c r="T6">
-        <v>0.4580106528163005</v>
-      </c>
-      <c r="U6">
-        <v>347.5</v>
-      </c>
-      <c r="V6">
-        <v>0.7608933654477775</v>
-      </c>
-      <c r="W6">
-        <v>0.2045248868778281</v>
-      </c>
-      <c r="X6">
-        <v>0.06138823156115628</v>
-      </c>
-      <c r="Y6">
-        <v>0.1431366553166718</v>
-      </c>
-      <c r="Z6">
-        <v>0.6840560976129298</v>
-      </c>
-      <c r="AA6">
-        <v>0.002862324969519077</v>
-      </c>
-      <c r="AB6">
-        <v>0.05668988197367655</v>
-      </c>
-      <c r="AC6">
-        <v>-0.05382755700415748</v>
-      </c>
-      <c r="AD6">
-        <v>137.1</v>
-      </c>
-      <c r="AE6">
-        <v>2.237222725325648</v>
-      </c>
-      <c r="AF6">
-        <v>139.3372227253256</v>
-      </c>
-      <c r="AG6">
-        <v>-208.1627772746744</v>
-      </c>
-      <c r="AH6">
-        <v>0.2337726863571019</v>
-      </c>
-      <c r="AI6">
-        <v>0.2661966262159445</v>
-      </c>
-      <c r="AJ6">
-        <v>-0.8375517155622535</v>
-      </c>
-      <c r="AK6">
-        <v>-1.183165074736115</v>
-      </c>
-      <c r="AL6">
-        <v>8.34</v>
-      </c>
-      <c r="AM6">
-        <v>8.34</v>
-      </c>
-      <c r="AN6">
-        <v>41.41993957703927</v>
-      </c>
-      <c r="AO6">
-        <v>-0.1211031175059952</v>
-      </c>
-      <c r="AP6">
-        <v>-62.88905657845147</v>
-      </c>
-      <c r="AQ6">
-        <v>-0.1211031175059952</v>
+        <v>-1.145161290322581</v>
       </c>
     </row>
   </sheetData>
